--- a/Holcene Revision Work/EDML LC/EDML-GICC Errors/New_Layers.xlsx
+++ b/Holcene Revision Work/EDML LC/EDML-GICC Errors/New_Layers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quinnmackay/Documents/GitHub/BICC/Holcene Revision Work/EDML LC/EDML-GICC Errors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB14A50-A1E7-244F-BA88-4E0AB6195DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4EF7C3-61FB-C843-B708-7AFEC37E3423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34400" windowHeight="26700" xr2:uid="{4DA22EE9-F53B-0A41-9821-C6FC1BEF8675}"/>
+    <workbookView xWindow="21820" yWindow="3420" windowWidth="34400" windowHeight="26700" xr2:uid="{4DA22EE9-F53B-0A41-9821-C6FC1BEF8675}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>WDC(m)</t>
   </si>
@@ -147,9 +147,6 @@
     <t>1413.5, 1431, 1454.5, 1468, 1514.5, 1530, 1544.5, 1552, 1574.5, 1579, 1596.5, 1603, 1619.5, 1624</t>
   </si>
   <si>
-    <t>128.8, 13.049, 140.48</t>
-  </si>
-  <si>
     <t>1665.5, 1668</t>
   </si>
   <si>
@@ -157,13 +154,73 @@
   </si>
   <si>
     <t>1708.5, 1712, 1735.5, 1738, 1743.5, 1753</t>
+  </si>
+  <si>
+    <t>2090, 2092.5, 2099</t>
+  </si>
+  <si>
+    <t>2374.5, 2450</t>
+  </si>
+  <si>
+    <t>2357.5, 2364, 2385, 2387.5, 2401, 2407.5, 2411, 2437, 2444.5, 2424.5, 2474.5, 2492, 2493.5, 2510</t>
+  </si>
+  <si>
+    <t>2468, 2431.5, 2476.5</t>
+  </si>
+  <si>
+    <t>2590.5, 2598.5, 2593, 2621</t>
+  </si>
+  <si>
+    <t>2560, 2563.5, 2581, 2611, 2618.5, 2628.5, 2631, 2637.5, 2656</t>
+  </si>
+  <si>
+    <t>2696.5, 2791, 2915, 2938.5, 2973.5, 3026, 3085, 3091.5, 3122</t>
+  </si>
+  <si>
+    <t>2666.5, 2674, 2678.5, 2684, 2717, 2725.5, 2764, 2774, 2786.5, 2796.5, 2801, 2807.5, 2734, 2755, 2745.5, 2829, 2863.5, 2912.5, 2919.5, 2922, 2944, 2952.5, 2955, 2978, 3064.5, 3063, 3061.5, 3073.5, 3075, 3082.5, 3099, 3117.5, 2762.5, 2769.5, 2867, 3066, 2998.5</t>
+  </si>
+  <si>
+    <t>3158, 3170, 3196.5, 3205, 3222.5, 3229, 3274, 3332, 3368.5, 3328.5, 3236.5</t>
+  </si>
+  <si>
+    <t>3127.5, 3149, 3156.5, 3193.5, 3195, 3252, 3263.5, 3162.5</t>
+  </si>
+  <si>
+    <t>2531.5, 2529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2524, 2527.5, 2514.5 </t>
+  </si>
+  <si>
+    <t>3537.5, 3547</t>
+  </si>
+  <si>
+    <t>3604, 3598.5, 3594.5</t>
+  </si>
+  <si>
+    <t>2130.5, 2135, 2144, 2150.5, 2179.5, 2183, 2201, 2207.5, 2255, 2256.5, 2318, 2236.5, 2228.5, 2258, 2187.5</t>
+  </si>
+  <si>
+    <t>2232, 2279, 2312.5, 2346, 2136.5, 2264.5, 2209, 2323.5, 2162</t>
+  </si>
+  <si>
+    <t>1797, 1800.5, 1881.5, 1887, 1937.5, 1979, 1980.5, 1996.5, 2037, 2042.5</t>
+  </si>
+  <si>
+    <t>1785.5, 1820, 1828.5, 1837, 1933, 1965, 1966.5, 2022, 2023.5, 1982, 1907.5</t>
+  </si>
+  <si>
+    <t>3551.5, 3557, 3559.5, 3567, 3458, 3401, 3431, 3418.5, 3442.5, 3459.5, 3465, 3468.5, 3484, 3487.5, 3498, 3515.5, 3525, 3526.5, 3534, 3541, 3543.5</t>
+  </si>
+  <si>
+    <t>128.8, 130.49, 140.48</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -186,13 +243,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF4EA72E"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -205,7 +255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,18 +276,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -251,6 +289,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -290,16 +334,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8886E691-6BFC-854E-9610-16E022706201}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -666,25 +709,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H1" t="s">
@@ -702,7 +745,7 @@
       <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="7" t="s">
         <v>13</v>
       </c>
       <c r="N1" t="s">
@@ -739,16 +782,16 @@
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="10">
+      <c r="K2" s="8">
         <v>1226</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="10" t="s">
         <v>22</v>
       </c>
       <c r="M2">
         <v>1270.090909090909</v>
       </c>
-      <c r="N2" s="14"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -773,20 +816,20 @@
         <v>5</v>
       </c>
       <c r="H3" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M3">
         <v>1376.2816091954021</v>
       </c>
-      <c r="N3" s="14"/>
+      <c r="N3" s="12"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -811,20 +854,20 @@
         <v>3</v>
       </c>
       <c r="H4" s="4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="11">
+      <c r="K4" s="9">
         <v>1391</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="11" t="s">
         <v>23</v>
       </c>
       <c r="M4">
         <v>1411.454545454545</v>
       </c>
-      <c r="N4" s="14"/>
+      <c r="N4" s="12"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -852,17 +895,17 @@
         <v>10</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="13"/>
+      <c r="L5" s="11"/>
       <c r="M5">
         <v>1636.663366336634</v>
       </c>
-      <c r="N5" s="14"/>
+      <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -891,14 +934,14 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="13"/>
+      <c r="K6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="11"/>
       <c r="M6">
         <v>1672.396226415095</v>
       </c>
-      <c r="N6" s="14"/>
+      <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -929,14 +972,14 @@
       <c r="J7" s="3">
         <v>1702</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="13"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="11"/>
       <c r="M7">
         <v>1702.015625</v>
       </c>
-      <c r="N7" s="14"/>
+      <c r="N7" s="12"/>
       <c r="O7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -968,14 +1011,14 @@
         <v>148.68</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="13"/>
+      <c r="K8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="11"/>
       <c r="M8">
         <v>1765.159090909091</v>
       </c>
-      <c r="N8" s="14"/>
+      <c r="N8" s="12"/>
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1001,16 +1044,20 @@
         <v>21</v>
       </c>
       <c r="H9" s="4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="13"/>
+      <c r="K9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="M9">
         <v>2076.7769230769231</v>
       </c>
-      <c r="N9" s="7"/>
+      <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -1035,16 +1082,18 @@
         <v>3</v>
       </c>
       <c r="H10" s="4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="13"/>
+      <c r="K10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="11"/>
       <c r="M10">
         <v>2100.0875000000001</v>
       </c>
-      <c r="N10" s="7"/>
+      <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -1073,12 +1122,16 @@
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="13"/>
+      <c r="K11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="M11">
         <v>2355.765957446808</v>
       </c>
-      <c r="N11" s="7"/>
+      <c r="N11" s="12"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -1106,13 +1159,19 @@
         <v>-9</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="13"/>
+      <c r="J12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="M12">
         <v>2511.5</v>
       </c>
-      <c r="N12" s="7"/>
+      <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1137,16 +1196,20 @@
         <v>5</v>
       </c>
       <c r="H13" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="13"/>
+      <c r="K13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="M13">
         <v>2545.5121951219512</v>
       </c>
-      <c r="N13" s="7"/>
+      <c r="N13" s="12"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -1171,16 +1234,20 @@
         <v>13</v>
       </c>
       <c r="H14" s="4">
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="13"/>
+      <c r="K14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="M14">
         <v>2663.344262295082</v>
       </c>
-      <c r="N14" s="7"/>
+      <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -1209,12 +1276,16 @@
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="13"/>
+      <c r="K15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="M15">
         <v>3127.1568627450979</v>
       </c>
-      <c r="N15" s="7"/>
+      <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -1239,16 +1310,20 @@
         <v>19</v>
       </c>
       <c r="H16" s="4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="13"/>
+      <c r="K16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="M16">
         <v>3377.1352941176469</v>
       </c>
-      <c r="N16" s="7"/>
+      <c r="N16" s="12"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -1273,16 +1348,20 @@
         <v>23</v>
       </c>
       <c r="H17" s="4">
-        <v>-9</v>
+        <v>-9.5</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="13"/>
+      <c r="K17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="M17">
         <v>3592.49090909091</v>
       </c>
-      <c r="N17" s="7"/>
+      <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -1311,12 +1390,16 @@
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="13"/>
+      <c r="K18" s="9">
+        <v>3597</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="M18">
         <v>3619.356060606061</v>
       </c>
-      <c r="N18" s="8"/>
+      <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G19" s="1" t="s">
@@ -1324,15 +1407,232 @@
       </c>
       <c r="H19">
         <f>SUM(H2:H18)</f>
-        <v>-15.5</v>
+        <v>-17.5</v>
       </c>
       <c r="M19" s="6"/>
     </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>-1.5</v>
+      </c>
+      <c r="F25">
+        <f>SUM($E25:E$25)</f>
+        <v>-1.5</v>
+      </c>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <f>SUM($E$25:E26)</f>
+        <v>-1</v>
+      </c>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="F27">
+        <f>SUM($E$25:E27)</f>
+        <v>-1.5</v>
+      </c>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" s="4">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <f>SUM($E$25:E28)</f>
+        <v>8.5</v>
+      </c>
+      <c r="G28" s="13"/>
+    </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f>SUM($E$25:E29)</f>
+        <v>9.5</v>
+      </c>
+      <c r="G29" s="13"/>
       <c r="L29" s="5"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F30">
+        <f>SUM($E$25:E30)</f>
+        <v>8.5</v>
+      </c>
+      <c r="G30" s="13"/>
       <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31" s="4">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <f>SUM($E$25:E31)</f>
+        <v>12.5</v>
+      </c>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="F32">
+        <f>SUM($E$25:E32)</f>
+        <v>12</v>
+      </c>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F33">
+        <f>SUM($E$25:E33)</f>
+        <v>13.5</v>
+      </c>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34" s="4">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <f>SUM($E$25:E34)</f>
+        <v>16.5</v>
+      </c>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35" s="4">
+        <v>-9</v>
+      </c>
+      <c r="F35">
+        <f>SUM($E$25:E35)</f>
+        <v>7.5</v>
+      </c>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>11</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F36">
+        <f>SUM($E$25:E36)</f>
+        <v>8</v>
+      </c>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37" s="4">
+        <v>-2.5</v>
+      </c>
+      <c r="F37">
+        <f>SUM($E$25:E37)</f>
+        <v>5.5</v>
+      </c>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>13</v>
+      </c>
+      <c r="E38" s="4">
+        <v>-14</v>
+      </c>
+      <c r="F38">
+        <f>SUM($E$25:E38)</f>
+        <v>-8.5</v>
+      </c>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F39">
+        <f>SUM($E$25:E39)</f>
+        <v>-7</v>
+      </c>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>15</v>
+      </c>
+      <c r="E40" s="4">
+        <v>-9.5</v>
+      </c>
+      <c r="F40">
+        <f>SUM($E$25:E40)</f>
+        <v>-16.5</v>
+      </c>
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>16</v>
+      </c>
+      <c r="E41" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F41">
+        <f>SUM($E$25:E41)</f>
+        <v>-17.5</v>
+      </c>
+      <c r="G41" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Holcene Revision Work/EDML LC/EDML-GICC Errors/New_Layers.xlsx
+++ b/Holcene Revision Work/EDML LC/EDML-GICC Errors/New_Layers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quinnmackay/Documents/GitHub/BICC/Holcene Revision Work/EDML LC/EDML-GICC Errors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4EF7C3-61FB-C843-B708-7AFEC37E3423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B5BAB4-FDE9-A44A-92A0-59E5E5193760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21820" yWindow="3420" windowWidth="34400" windowHeight="26700" xr2:uid="{4DA22EE9-F53B-0A41-9821-C6FC1BEF8675}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34400" windowHeight="26720" xr2:uid="{4DA22EE9-F53B-0A41-9821-C6FC1BEF8675}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
     <t>3551.5, 3557, 3559.5, 3567, 3458, 3401, 3431, 3418.5, 3442.5, 3459.5, 3465, 3468.5, 3484, 3487.5, 3498, 3515.5, 3525, 3526.5, 3534, 3541, 3543.5</t>
   </si>
   <si>
-    <t>128.8, 130.49, 140.48</t>
+    <t>128.8, 130.49, 140.44</t>
   </si>
 </sst>
 </file>
@@ -688,7 +688,7 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Holcene Revision Work/EDML LC/EDML-GICC Errors/New_Layers.xlsx
+++ b/Holcene Revision Work/EDML LC/EDML-GICC Errors/New_Layers.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quinnmackay/Documents/GitHub/BICC/Holcene Revision Work/EDML LC/EDML-GICC Errors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B5BAB4-FDE9-A44A-92A0-59E5E5193760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94241428-BBBE-0E42-9B9A-80F403E33278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34400" windowHeight="26720" xr2:uid="{4DA22EE9-F53B-0A41-9821-C6FC1BEF8675}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19660" xr2:uid="{4DA22EE9-F53B-0A41-9821-C6FC1BEF8675}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="old layers" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="WDC_GICC21_Compare" localSheetId="0">Sheet1!$A$1:$E$32</definedName>
-    <definedName name="WDC_GICC21_Compare" localSheetId="1">Sheet2!$A$1:$F$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,42 +53,15 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{70F5AAFA-019A-CE4A-8A3A-2EF827576C05}" name="WDC_GICC21_Compare1" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/quinnmackay/Documents/GitHub/BICC/Holcene Revision/WDC_GICC21_Compare.tab">
-      <textFields count="6">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
-  <si>
-    <t>WDC(m)</t>
-  </si>
-  <si>
-    <t>GRIP(m)</t>
-  </si>
-  <si>
-    <t>WD2014 age (yr BP1950)</t>
-  </si>
-  <si>
-    <t>GICC age (yr BP1950)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>difference (yr)</t>
   </si>
   <si>
-    <t>section error (yr)</t>
-  </si>
-  <si>
     <t>How many?</t>
   </si>
   <si>
@@ -132,88 +104,79 @@
     <t>Half_remove</t>
   </si>
   <si>
-    <t>1356, 1308.5, 1340</t>
-  </si>
-  <si>
-    <t>1344.5, 1367.5</t>
-  </si>
-  <si>
-    <t>1206, 1210.5, 1233.5, 1235</t>
-  </si>
-  <si>
-    <t>1394.5, 1411</t>
-  </si>
-  <si>
     <t>1413.5, 1431, 1454.5, 1468, 1514.5, 1530, 1544.5, 1552, 1574.5, 1579, 1596.5, 1603, 1619.5, 1624</t>
   </si>
   <si>
     <t>1665.5, 1668</t>
   </si>
   <si>
-    <t>Difficult. Depending on midified run can reset this.</t>
-  </si>
-  <si>
-    <t>1708.5, 1712, 1735.5, 1738, 1743.5, 1753</t>
-  </si>
-  <si>
     <t>2090, 2092.5, 2099</t>
   </si>
   <si>
-    <t>2374.5, 2450</t>
-  </si>
-  <si>
-    <t>2357.5, 2364, 2385, 2387.5, 2401, 2407.5, 2411, 2437, 2444.5, 2424.5, 2474.5, 2492, 2493.5, 2510</t>
-  </si>
-  <si>
     <t>2468, 2431.5, 2476.5</t>
   </si>
   <si>
+    <t>2696.5, 2791, 2915, 2938.5, 2973.5, 3026, 3085, 3091.5, 3122</t>
+  </si>
+  <si>
+    <t>2666.5, 2674, 2678.5, 2684, 2717, 2725.5, 2764, 2774, 2786.5, 2796.5, 2801, 2807.5, 2734, 2755, 2745.5, 2829, 2863.5, 2912.5, 2919.5, 2922, 2944, 2952.5, 2955, 2978, 3064.5, 3063, 3061.5, 3073.5, 3075, 3082.5, 3099, 3117.5, 2762.5, 2769.5, 2867, 3066, 2998.5</t>
+  </si>
+  <si>
+    <t>3158, 3170, 3196.5, 3205, 3222.5, 3229, 3274, 3332, 3368.5, 3328.5, 3236.5</t>
+  </si>
+  <si>
+    <t>3127.5, 3149, 3156.5, 3193.5, 3195, 3252, 3263.5, 3162.5</t>
+  </si>
+  <si>
+    <t>2531.5, 2529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2524, 2527.5, 2514.5 </t>
+  </si>
+  <si>
+    <t>3537.5, 3547</t>
+  </si>
+  <si>
+    <t>3604, 3598.5, 3594.5</t>
+  </si>
+  <si>
+    <t>3551.5, 3557, 3559.5, 3567, 3458, 3401, 3431, 3418.5, 3442.5, 3459.5, 3465, 3468.5, 3484, 3487.5, 3498, 3515.5, 3525, 3526.5, 3534, 3541, 3543.5</t>
+  </si>
+  <si>
+    <t>1356, 1308.5, 1340, 1367.5</t>
+  </si>
+  <si>
+    <t>1394.5, 1411, 1391</t>
+  </si>
+  <si>
+    <t>130.49, 140.44</t>
+  </si>
+  <si>
+    <t>1785.5, 1820, 1828.5, 1837, 1933, 1965, 1966.5, 2022, 2023.5</t>
+  </si>
+  <si>
+    <t>1797, 1800.5, 1881.5, 1887, 1937.5, 1979, 1980.5, 1996.5, 2037, 2042.5, 1907.5, 1982</t>
+  </si>
+  <si>
+    <t>2232, 2279, 2312.5, 2346, 2264.5, 2323.5, 2162</t>
+  </si>
+  <si>
+    <t>2130.5, 2135, 2144, 2150.5, 2179.5, 2183, 2201, 2207.5, 2255, 2256.5, 2318, 2236.5, 2228.5, 2258, 2187.5, 2209, 2136.5</t>
+  </si>
+  <si>
+    <t>2357.5, 2364, 2385, 2387.5, 2401, 2407.5, 2411, 2437, 2444.5, 2424.5, 2474.5, 2492, 2493.5, 2510, 2450</t>
+  </si>
+  <si>
+    <t>1708.5, 1735.5, 1738, 1743.5, 1753</t>
+  </si>
+  <si>
+    <t>1206, 1210.5, 1233.5, 1235, 1226</t>
+  </si>
+  <si>
     <t>2590.5, 2598.5, 2593, 2621</t>
   </si>
   <si>
-    <t>2560, 2563.5, 2581, 2611, 2618.5, 2628.5, 2631, 2637.5, 2656</t>
-  </si>
-  <si>
-    <t>2696.5, 2791, 2915, 2938.5, 2973.5, 3026, 3085, 3091.5, 3122</t>
-  </si>
-  <si>
-    <t>2666.5, 2674, 2678.5, 2684, 2717, 2725.5, 2764, 2774, 2786.5, 2796.5, 2801, 2807.5, 2734, 2755, 2745.5, 2829, 2863.5, 2912.5, 2919.5, 2922, 2944, 2952.5, 2955, 2978, 3064.5, 3063, 3061.5, 3073.5, 3075, 3082.5, 3099, 3117.5, 2762.5, 2769.5, 2867, 3066, 2998.5</t>
-  </si>
-  <si>
-    <t>3158, 3170, 3196.5, 3205, 3222.5, 3229, 3274, 3332, 3368.5, 3328.5, 3236.5</t>
-  </si>
-  <si>
-    <t>3127.5, 3149, 3156.5, 3193.5, 3195, 3252, 3263.5, 3162.5</t>
-  </si>
-  <si>
-    <t>2531.5, 2529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2524, 2527.5, 2514.5 </t>
-  </si>
-  <si>
-    <t>3537.5, 3547</t>
-  </si>
-  <si>
-    <t>3604, 3598.5, 3594.5</t>
-  </si>
-  <si>
-    <t>2130.5, 2135, 2144, 2150.5, 2179.5, 2183, 2201, 2207.5, 2255, 2256.5, 2318, 2236.5, 2228.5, 2258, 2187.5</t>
-  </si>
-  <si>
-    <t>2232, 2279, 2312.5, 2346, 2136.5, 2264.5, 2209, 2323.5, 2162</t>
-  </si>
-  <si>
-    <t>1797, 1800.5, 1881.5, 1887, 1937.5, 1979, 1980.5, 1996.5, 2037, 2042.5</t>
-  </si>
-  <si>
-    <t>1785.5, 1820, 1828.5, 1837, 1933, 1965, 1966.5, 2022, 2023.5, 1982, 1907.5</t>
-  </si>
-  <si>
-    <t>3551.5, 3557, 3559.5, 3567, 3458, 3401, 3431, 3418.5, 3442.5, 3459.5, 3465, 3468.5, 3484, 3487.5, 3498, 3515.5, 3525, 3526.5, 3534, 3541, 3543.5</t>
-  </si>
-  <si>
-    <t>128.8, 130.49, 140.44</t>
+    <t>2560, 2563.5, 2611, 2618.5, 2628.5, 2631, 2637.5, 2656, 2581</t>
   </si>
 </sst>
 </file>
@@ -255,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +261,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -326,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -343,6 +312,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,10 +333,6 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WDC_GICC21_Compare" connectionId="1" xr16:uid="{57E52C84-BD08-A54F-8C7B-59DEC7E12946}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WDC_GICC21_Compare" connectionId="2" xr16:uid="{9A429FC2-22DB-7148-B8B5-5C1AFF072CBF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -685,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8886E691-6BFC-854E-9610-16E022706201}">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="136" zoomScaleNormal="167" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -710,49 +677,49 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="M1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -766,27 +733,27 @@
         <v>265.32</v>
       </c>
       <c r="D2">
-        <v>1268</v>
+        <v>1267.216666666666</v>
       </c>
       <c r="E2">
-        <v>2.0909090909090078</v>
+        <v>2.8742424242425391</v>
       </c>
       <c r="F2">
-        <v>2.0909090909090078</v>
+        <v>2.8742424242425391</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
       <c r="H2" s="4">
-        <v>-1.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="8">
-        <v>1226</v>
-      </c>
+      <c r="J2" s="3">
+        <v>1245</v>
+      </c>
+      <c r="K2" s="8"/>
       <c r="L2" s="10" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="M2">
         <v>1270.090909090909</v>
@@ -804,27 +771,27 @@
         <v>284.20999999999998</v>
       </c>
       <c r="D3">
-        <v>1375</v>
+        <v>1374.6071428571429</v>
       </c>
       <c r="E3">
-        <v>1.281609195402325</v>
+        <v>1.674466338259663</v>
       </c>
       <c r="F3">
-        <v>-0.80929989550668324</v>
+        <v>-1.1997760859828761</v>
       </c>
       <c r="G3">
         <v>5</v>
       </c>
       <c r="H3" s="4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="L3" s="11">
+        <v>1344.5</v>
       </c>
       <c r="M3">
         <v>1376.2816091954021</v>
@@ -842,27 +809,25 @@
         <v>290.20999999999998</v>
       </c>
       <c r="D4">
-        <v>1409</v>
+        <v>1408.5769230769231</v>
       </c>
       <c r="E4">
-        <v>2.4545454545454959</v>
+        <v>2.8776223776226288</v>
       </c>
       <c r="F4">
-        <v>1.1729362591431709</v>
+        <v>1.2031560393629659</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4" s="4">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="9">
-        <v>1391</v>
-      </c>
+      <c r="K4" s="9"/>
       <c r="L4" s="11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M4">
         <v>1411.454545454545</v>
@@ -880,26 +845,26 @@
         <v>331.21</v>
       </c>
       <c r="D5">
-        <v>1644</v>
+        <v>1643.2361111111111</v>
       </c>
       <c r="E5">
-        <v>-7.3366336633662286</v>
+        <v>-6.572744774477087</v>
       </c>
       <c r="F5">
-        <v>-9.7911791179117245</v>
+        <v>-9.4503671520997159</v>
       </c>
       <c r="G5">
         <v>14</v>
       </c>
       <c r="H5" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="9" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L5" s="11"/>
       <c r="M5">
@@ -918,24 +883,26 @@
         <v>337.42</v>
       </c>
       <c r="D6">
-        <v>1681</v>
+        <v>1680.6527777777781</v>
       </c>
       <c r="E6">
-        <v>-8.6037735849054116</v>
+        <v>-8.2565513626832399</v>
       </c>
       <c r="F6">
-        <v>-1.267139921539183</v>
+        <v>-1.683806588206153</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>145.55000000000001</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6">
@@ -954,33 +921,28 @@
         <v>342.27</v>
       </c>
       <c r="D7">
-        <v>1709.5</v>
+        <v>1709.9166666666661</v>
       </c>
       <c r="E7">
-        <v>-7.484375</v>
+        <v>-7.9010416666662877</v>
       </c>
       <c r="F7">
-        <v>1.119398584905412</v>
+        <v>0.35550969601695209</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="3">
-        <v>1702</v>
-      </c>
+      <c r="J7" s="3"/>
       <c r="K7" s="9"/>
       <c r="L7" s="11"/>
       <c r="M7">
         <v>1702.015625</v>
       </c>
       <c r="N7" s="12"/>
-      <c r="O7" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -993,28 +955,28 @@
         <v>353.26</v>
       </c>
       <c r="D8">
-        <v>1777</v>
+        <v>1774.535714285714</v>
       </c>
       <c r="E8">
-        <v>-11.84090909090901</v>
+        <v>-9.376623376623229</v>
       </c>
       <c r="F8">
-        <v>-4.3565340909090082</v>
+        <v>-1.475581709956941</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
       <c r="H8" s="4">
-        <v>4</v>
-      </c>
-      <c r="I8" s="2">
-        <v>148.68</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="3"/>
       <c r="K8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="L8" s="11">
+        <v>1712</v>
+      </c>
       <c r="M8">
         <v>1765.159090909091</v>
       </c>
@@ -1032,27 +994,27 @@
         <v>406.79</v>
       </c>
       <c r="D9">
-        <v>2088</v>
+        <v>2087.9940476190482</v>
       </c>
       <c r="E9">
-        <v>-11.22307692307686</v>
+        <v>-11.217124542124569</v>
       </c>
       <c r="F9">
-        <v>0.61783216783214812</v>
+        <v>-1.840501165501337</v>
       </c>
       <c r="G9">
         <v>21</v>
       </c>
       <c r="H9" s="4">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="3"/>
       <c r="K9" s="9" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="M9">
         <v>2076.7769230769231</v>
@@ -1070,13 +1032,13 @@
         <v>410.73</v>
       </c>
       <c r="D10">
-        <v>2113</v>
+        <v>2112.735714285714</v>
       </c>
       <c r="E10">
-        <v>-12.912499999999911</v>
+        <v>-12.648214285714401</v>
       </c>
       <c r="F10">
-        <v>-1.6894230769230489</v>
+        <v>-1.4310897435898371</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1087,7 +1049,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
       <c r="K10" s="9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="L10" s="11"/>
       <c r="M10">
@@ -1106,27 +1068,27 @@
         <v>453</v>
       </c>
       <c r="D11">
-        <v>2372.099999999999</v>
+        <v>2373.6269841269841</v>
       </c>
       <c r="E11">
-        <v>-16.33404255319056</v>
+        <v>-17.861026680175659</v>
       </c>
       <c r="F11">
-        <v>-3.421542553190648</v>
+        <v>-5.2128123944612534</v>
       </c>
       <c r="G11">
         <v>24</v>
       </c>
       <c r="H11" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
       <c r="K11" s="9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M11">
         <v>2355.765957446808</v>
@@ -1144,29 +1106,29 @@
         <v>476.48</v>
       </c>
       <c r="D12">
-        <v>2519</v>
+        <v>2519.2532467532469</v>
       </c>
       <c r="E12">
-        <v>-7.4999999999995453</v>
+        <v>-7.753246753246458</v>
       </c>
       <c r="F12">
-        <v>8.8340425531910114</v>
+        <v>10.107779926929201</v>
       </c>
       <c r="G12">
         <v>16</v>
       </c>
       <c r="H12" s="4">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="K12" s="9">
+        <v>2374.5</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M12">
         <v>2511.5</v>
@@ -1184,13 +1146,13 @@
         <v>481.98</v>
       </c>
       <c r="D13">
-        <v>2553.6</v>
+        <v>2553.4220779220782</v>
       </c>
       <c r="E13">
-        <v>-8.0878048780487006</v>
+        <v>-7.9098828001265247</v>
       </c>
       <c r="F13">
-        <v>-0.58780487804915538</v>
+        <v>-0.15663604688006669</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -1201,10 +1163,10 @@
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
       <c r="K13" s="9" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M13">
         <v>2545.5121951219512</v>
@@ -1222,13 +1184,13 @@
         <v>500.31</v>
       </c>
       <c r="D14">
-        <v>2669</v>
+        <v>2669.4480519480521</v>
       </c>
       <c r="E14">
-        <v>-5.6557377049180104</v>
+        <v>-6.1037896529701356</v>
       </c>
       <c r="F14">
-        <v>2.4320671731306902</v>
+        <v>1.806093147156389</v>
       </c>
       <c r="G14">
         <v>13</v>
@@ -1239,10 +1201,10 @@
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
       <c r="K14" s="9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M14">
         <v>2663.344262295082</v>
@@ -1260,13 +1222,13 @@
         <v>570.73</v>
       </c>
       <c r="D15">
-        <v>3118.6999999999971</v>
+        <v>3118.7142857142858</v>
       </c>
       <c r="E15">
-        <v>8.4568627451012617</v>
+        <v>8.4425770308121173</v>
       </c>
       <c r="F15">
-        <v>14.11260045001927</v>
+        <v>14.546366683782249</v>
       </c>
       <c r="G15">
         <v>46</v>
@@ -1277,10 +1239,10 @@
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
       <c r="K15" s="9" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M15">
         <v>3127.1568627450979</v>
@@ -1288,148 +1250,36 @@
       <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>256.45</v>
-      </c>
-      <c r="B16">
-        <v>3377.1352941176469</v>
-      </c>
-      <c r="C16">
-        <v>609.52</v>
-      </c>
-      <c r="D16">
-        <v>3370.299999999997</v>
-      </c>
-      <c r="E16">
-        <v>6.8352941176499371</v>
-      </c>
-      <c r="F16">
-        <v>-1.621568627451325</v>
-      </c>
-      <c r="G16">
-        <v>19</v>
-      </c>
-      <c r="H16" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16">
-        <v>3377.1352941176469</v>
-      </c>
-      <c r="N16" s="12"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>270.72000000000003</v>
-      </c>
-      <c r="B17">
-        <v>3592.49090909091</v>
-      </c>
-      <c r="C17">
-        <v>641.01</v>
-      </c>
-      <c r="D17">
-        <v>3576.399999999996</v>
-      </c>
-      <c r="E17">
-        <v>16.090909090913559</v>
-      </c>
-      <c r="F17">
-        <v>9.2556149732636186</v>
-      </c>
-      <c r="G17">
-        <v>23</v>
-      </c>
-      <c r="H17" s="4">
-        <v>-9.5</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M17">
-        <v>3592.49090909091</v>
-      </c>
-      <c r="N17" s="12"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>272.3</v>
-      </c>
-      <c r="B18">
-        <v>3619.356060606061</v>
-      </c>
-      <c r="C18">
-        <v>644.87</v>
-      </c>
-      <c r="D18">
-        <v>3602.2000000000021</v>
-      </c>
-      <c r="E18">
-        <v>17.156060606058421</v>
-      </c>
-      <c r="F18">
-        <v>1.0651515151448621</v>
-      </c>
-      <c r="G18">
+      <c r="G16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="4">
-        <v>-1</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="9">
-        <v>3597</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18">
-        <v>3619.356060606061</v>
-      </c>
-      <c r="N18" s="12"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19">
-        <f>SUM(H2:H18)</f>
-        <v>-17.5</v>
-      </c>
+      <c r="H16">
+        <f>SUM(H2:H15)</f>
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
       <c r="M19" s="6"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" s="4">
-        <v>-1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="F25">
         <f>SUM($E25:E$25)</f>
-        <v>-1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F26">
         <f>SUM($E$25:E26)</f>
@@ -1437,52 +1287,52 @@
       </c>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" s="4">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="F27">
         <f>SUM($E$25:E27)</f>
-        <v>-1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28">
         <f>SUM($E$25:E28)</f>
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <f>SUM($E$25:E29)</f>
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="G29" s="13"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D30">
         <v>5</v>
       </c>
       <c r="E30" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <f>SUM($E$25:E30)</f>
@@ -1491,25 +1341,25 @@
       <c r="G30" s="13"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D31">
         <v>6</v>
       </c>
       <c r="E31" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <f>SUM($E$25:E31)</f>
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D32">
         <v>7</v>
       </c>
       <c r="E32" s="4">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F32">
         <f>SUM($E$25:E32)</f>
@@ -1535,11 +1385,11 @@
         <v>9</v>
       </c>
       <c r="E34" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F34">
         <f>SUM($E$25:E34)</f>
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="G34" s="13"/>
     </row>
@@ -1548,11 +1398,11 @@
         <v>10</v>
       </c>
       <c r="E35" s="4">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="F35">
         <f>SUM($E$25:E35)</f>
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="G35" s="13"/>
     </row>
@@ -1565,7 +1415,7 @@
       </c>
       <c r="F36">
         <f>SUM($E$25:E36)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G36" s="13"/>
     </row>
@@ -1574,11 +1424,11 @@
         <v>12</v>
       </c>
       <c r="E37" s="4">
-        <v>-2.5</v>
+        <v>-1.5</v>
       </c>
       <c r="F37">
         <f>SUM($E$25:E37)</f>
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="G37" s="13"/>
     </row>
@@ -1591,48 +1441,9 @@
       </c>
       <c r="F38">
         <f>SUM($E$25:E38)</f>
-        <v>-8.5</v>
+        <v>-6.5</v>
       </c>
       <c r="G38" s="13"/>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D39">
-        <v>14</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F39">
-        <f>SUM($E$25:E39)</f>
-        <v>-7</v>
-      </c>
-      <c r="G39" s="13"/>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D40">
-        <v>15</v>
-      </c>
-      <c r="E40" s="4">
-        <v>-9.5</v>
-      </c>
-      <c r="F40">
-        <f>SUM($E$25:E40)</f>
-        <v>-16.5</v>
-      </c>
-      <c r="G40" s="13"/>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D41">
-        <v>16</v>
-      </c>
-      <c r="E41" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F41">
-        <f>SUM($E$25:E41)</f>
-        <v>-17.5</v>
-      </c>
-      <c r="G41" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1640,661 +1451,128 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8138C256-2B26-E242-9FAC-46FD0836C243}">
-  <dimension ref="A1:F32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A10E4F3-E0BC-984C-8C58-72C6C0EF6AAB}">
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F32"/>
+      <selection sqref="A1:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="14">
+        <v>256.45</v>
+      </c>
+      <c r="B1" s="14">
+        <v>3377.1352941176469</v>
+      </c>
+      <c r="C1" s="14">
+        <v>609.52</v>
+      </c>
+      <c r="D1" s="14">
+        <v>3370.299999999997</v>
+      </c>
+      <c r="E1" s="14">
+        <v>6.8352941176499371</v>
+      </c>
+      <c r="F1" s="14">
+        <v>-1.621568627451325</v>
+      </c>
+      <c r="G1" s="14">
+        <v>19</v>
+      </c>
+      <c r="H1" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="14">
+        <v>3377.1352941176469</v>
+      </c>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>270.72000000000003</v>
+      </c>
+      <c r="B2" s="14">
+        <v>3592.49090909091</v>
+      </c>
+      <c r="C2" s="14">
+        <v>641.01</v>
+      </c>
+      <c r="D2" s="14">
+        <v>3576.399999999996</v>
+      </c>
+      <c r="E2" s="14">
+        <v>16.090909090913559</v>
+      </c>
+      <c r="F2" s="14">
+        <v>9.2556149732636186</v>
+      </c>
+      <c r="G2" s="14">
+        <v>23</v>
+      </c>
+      <c r="H2" s="15">
+        <v>-9.5</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="14">
+        <v>3592.49090909091</v>
+      </c>
+      <c r="N2" s="14"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>272.3</v>
+      </c>
+      <c r="B3" s="14">
+        <v>3619.356060606061</v>
+      </c>
+      <c r="C3" s="14">
+        <v>644.87</v>
+      </c>
+      <c r="D3" s="14">
+        <v>3602.2000000000021</v>
+      </c>
+      <c r="E3" s="14">
+        <v>17.156060606058421</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1.0651515151448621</v>
+      </c>
+      <c r="G3" s="14">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>139.13650000000001</v>
-      </c>
-      <c r="B2">
-        <v>139.38390000000001</v>
-      </c>
-      <c r="C2">
-        <v>472.5</v>
-      </c>
-      <c r="D2">
-        <v>472.70622222222198</v>
-      </c>
-      <c r="E2">
-        <v>-0.20622222222226499</v>
-      </c>
-      <c r="F2">
-        <v>-0.20622222222226499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>142.90114</v>
-      </c>
-      <c r="B3">
-        <v>143.15456</v>
-      </c>
-      <c r="C3">
-        <v>489.99527472527399</v>
-      </c>
-      <c r="D3">
-        <v>490.131377777777</v>
-      </c>
-      <c r="E3">
-        <v>-0.13610305250301699</v>
-      </c>
-      <c r="F3">
-        <v>7.0119169719248406E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>182.41005000000001</v>
-      </c>
-      <c r="B4">
-        <v>181.31995000000001</v>
-      </c>
-      <c r="C4">
-        <v>662.76036585365796</v>
-      </c>
-      <c r="D4">
-        <v>662.97474999999997</v>
-      </c>
-      <c r="E4">
-        <v>-0.21438414634144401</v>
-      </c>
-      <c r="F4">
-        <v>-7.8281093838427296E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>188.45998</v>
-      </c>
-      <c r="B5">
-        <v>187.29059000000001</v>
-      </c>
-      <c r="C5">
-        <v>690.278098591549</v>
-      </c>
-      <c r="D5">
-        <v>690.84706666666602</v>
-      </c>
-      <c r="E5">
-        <v>-0.56896807511748104</v>
-      </c>
-      <c r="F5">
-        <v>-0.35458392877603701</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>208.83713</v>
-      </c>
-      <c r="B6">
-        <v>205.99639999999999</v>
-      </c>
-      <c r="C6">
-        <v>777.190392156862</v>
-      </c>
-      <c r="D6">
-        <v>777.85699999999997</v>
-      </c>
-      <c r="E6">
-        <v>-0.66660784313717103</v>
-      </c>
-      <c r="F6">
-        <v>-9.7639768019689599E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>223.29808</v>
-      </c>
-      <c r="B7">
-        <v>219.5368</v>
-      </c>
-      <c r="C7">
-        <v>839.27920318725</v>
-      </c>
-      <c r="D7">
-        <v>840.017511520737</v>
-      </c>
-      <c r="E7">
-        <v>-0.73830833348642899</v>
-      </c>
-      <c r="F7">
-        <v>-7.1700490349257906E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>264.10300000000001</v>
-      </c>
-      <c r="B8">
-        <v>256.15244000000001</v>
-      </c>
-      <c r="C8">
-        <v>1010</v>
-      </c>
-      <c r="D8">
-        <v>1010.00887272727</v>
-      </c>
-      <c r="E8">
-        <v>-8.8727272728874595E-3</v>
-      </c>
-      <c r="F8">
-        <v>0.72943560621354198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>279.31049999999999</v>
-      </c>
-      <c r="B9">
-        <v>269.39</v>
-      </c>
-      <c r="C9">
-        <v>1071.4979166666601</v>
-      </c>
-      <c r="D9">
-        <v>1072.7333333333299</v>
-      </c>
-      <c r="E9">
-        <v>-1.23541666666665</v>
-      </c>
-      <c r="F9">
-        <v>-1.2265439393937601</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>325.77285999999998</v>
-      </c>
-      <c r="B10">
-        <v>309.70468</v>
-      </c>
-      <c r="C10">
-        <v>1266.6472173913</v>
-      </c>
-      <c r="D10">
-        <v>1268.13191111111</v>
-      </c>
-      <c r="E10">
-        <v>-1.4846937198069501</v>
-      </c>
-      <c r="F10">
-        <v>-0.24927705314030299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>339.464</v>
-      </c>
-      <c r="B11">
-        <v>320.86797999999999</v>
-      </c>
-      <c r="C11">
-        <v>1323</v>
-      </c>
-      <c r="D11">
-        <v>1322.2148999999999</v>
-      </c>
-      <c r="E11">
-        <v>0.78510000000005598</v>
-      </c>
-      <c r="F11">
-        <v>2.2697937198070099</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>351.35205000000002</v>
-      </c>
-      <c r="B12">
-        <v>331.87844999999999</v>
-      </c>
-      <c r="C12">
-        <v>1373.50564516129</v>
-      </c>
-      <c r="D12">
-        <v>1375.3922499999901</v>
-      </c>
-      <c r="E12">
-        <v>-1.88660483870921</v>
-      </c>
-      <c r="F12">
-        <v>-2.6717048387092701</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>359.66140000000001</v>
-      </c>
-      <c r="B13">
-        <v>338.89202999999998</v>
-      </c>
-      <c r="C13">
-        <v>1407.93942857142</v>
-      </c>
-      <c r="D13">
-        <v>1409.1400999999901</v>
-      </c>
-      <c r="E13">
-        <v>-1.2006714285714599</v>
-      </c>
-      <c r="F13">
-        <v>0.685933410137749</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>361.01751999999999</v>
-      </c>
-      <c r="B14">
-        <v>339.8614</v>
-      </c>
-      <c r="C14">
-        <v>1413.50011428571</v>
-      </c>
-      <c r="D14">
-        <v>1413.682</v>
-      </c>
-      <c r="E14">
-        <v>-0.181885714285726</v>
-      </c>
-      <c r="F14">
-        <v>1.0187857142857399</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>380.16845999999998</v>
-      </c>
-      <c r="B15">
-        <v>356.26280000000003</v>
-      </c>
-      <c r="C15">
-        <v>1495.0271951219499</v>
-      </c>
-      <c r="D15">
-        <v>1492.39022222222</v>
-      </c>
-      <c r="E15">
-        <v>2.6369728997290101</v>
-      </c>
-      <c r="F15">
-        <v>2.81885861401474</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>423.70557000000002</v>
-      </c>
-      <c r="B16">
-        <v>394.24423000000002</v>
-      </c>
-      <c r="C16">
-        <v>1683.07060836501</v>
-      </c>
-      <c r="D16">
-        <v>1682.0854666666601</v>
-      </c>
-      <c r="E16">
-        <v>0.98514169835243504</v>
-      </c>
-      <c r="F16">
-        <v>-1.6518312013765799</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>445.54683999999997</v>
-      </c>
-      <c r="B17">
-        <v>413.21722</v>
-      </c>
-      <c r="C17">
-        <v>1778.8320912547499</v>
-      </c>
-      <c r="D17">
-        <v>1778.4611</v>
-      </c>
-      <c r="E17">
-        <v>0.37099125475265199</v>
-      </c>
-      <c r="F17">
-        <v>-0.61415044359978299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>518.44269999999995</v>
-      </c>
-      <c r="B18">
-        <v>475.05817000000002</v>
-      </c>
-      <c r="C18">
-        <v>2096.6030434782601</v>
-      </c>
-      <c r="D18">
-        <v>2092.5408499999999</v>
-      </c>
-      <c r="E18">
-        <v>4.0621934782602596</v>
-      </c>
-      <c r="F18">
-        <v>3.6912022235076098</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>523.80319999999995</v>
-      </c>
-      <c r="B19">
-        <v>479.29388</v>
-      </c>
-      <c r="C19">
-        <v>2119.6076335877801</v>
-      </c>
-      <c r="D19">
-        <v>2114.8221714285701</v>
-      </c>
-      <c r="E19">
-        <v>4.7854621592150499</v>
-      </c>
-      <c r="F19">
-        <v>0.72326868095478802</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>532.68799999999999</v>
-      </c>
-      <c r="B20">
-        <v>486.67574999999999</v>
-      </c>
-      <c r="C20">
-        <v>2160.1728813559298</v>
-      </c>
-      <c r="D20">
-        <v>2154.5757142857101</v>
-      </c>
-      <c r="E20">
-        <v>5.5971670702183403</v>
-      </c>
-      <c r="F20">
-        <v>0.81170491100328901</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>541.39795000000004</v>
-      </c>
-      <c r="B21">
-        <v>493.04770000000002</v>
-      </c>
-      <c r="C21">
-        <v>2196.19828244274</v>
-      </c>
-      <c r="D21">
-        <v>2189.0713414634101</v>
-      </c>
-      <c r="E21">
-        <v>7.1269409793339902</v>
-      </c>
-      <c r="F21">
-        <v>1.5297739091156399</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>568.04070000000002</v>
-      </c>
-      <c r="B22">
-        <v>513.43979999999999</v>
-      </c>
-      <c r="C22">
-        <v>2306.9943478260798</v>
-      </c>
-      <c r="D22">
-        <v>2300.9319999999998</v>
-      </c>
-      <c r="E22">
-        <v>6.0623478260872599</v>
-      </c>
-      <c r="F22">
-        <v>-1.0645931532467301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>583.83950000000004</v>
-      </c>
-      <c r="B23">
-        <v>526.74419999999998</v>
-      </c>
-      <c r="C23">
-        <v>2374.6536144578299</v>
-      </c>
-      <c r="D23">
-        <v>2372.7946666666599</v>
-      </c>
-      <c r="E23">
-        <v>1.85894779116506</v>
-      </c>
-      <c r="F23">
-        <v>-4.2034000349221898</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>593.95240000000001</v>
-      </c>
-      <c r="B24">
-        <v>534.13793999999996</v>
-      </c>
-      <c r="C24">
-        <v>2417.64153005464</v>
-      </c>
-      <c r="D24">
-        <v>2412.1896999999999</v>
-      </c>
-      <c r="E24">
-        <v>5.4518300546446801</v>
-      </c>
-      <c r="F24">
-        <v>3.5928822634796198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>619.32996000000003</v>
-      </c>
-      <c r="B25">
-        <v>553.47059999999999</v>
-      </c>
-      <c r="C25">
-        <v>2529.4971122994598</v>
-      </c>
-      <c r="D25">
-        <v>2518.4780000000001</v>
-      </c>
-      <c r="E25">
-        <v>11.0191122994651</v>
-      </c>
-      <c r="F25">
-        <v>5.5672822448204897</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>747.65719999999999</v>
-      </c>
-      <c r="B26">
-        <v>659.32324000000006</v>
-      </c>
-      <c r="C26">
-        <v>3120.7939655172399</v>
-      </c>
-      <c r="D26">
-        <v>3118.1327999999999</v>
-      </c>
-      <c r="E26">
-        <v>2.6611655172409798</v>
-      </c>
-      <c r="F26">
-        <v>-8.3579467822241895</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>765.16394000000003</v>
-      </c>
-      <c r="B27">
-        <v>673.50120000000004</v>
-      </c>
-      <c r="C27">
-        <v>3202.8317968749998</v>
-      </c>
-      <c r="D27">
-        <v>3199.8413333333301</v>
-      </c>
-      <c r="E27">
-        <v>2.9904635416660299</v>
-      </c>
-      <c r="F27">
-        <v>0.32929802442504202</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>799.77059999999994</v>
-      </c>
-      <c r="B28">
-        <v>701.84100000000001</v>
-      </c>
-      <c r="C28">
-        <v>3363.9593749999999</v>
-      </c>
-      <c r="D28">
-        <v>3368.2684563758298</v>
-      </c>
-      <c r="E28">
-        <v>-4.3090813758385504</v>
-      </c>
-      <c r="F28">
-        <v>-7.2995449175045897</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>810.3125</v>
-      </c>
-      <c r="B29">
-        <v>709.99976000000004</v>
-      </c>
-      <c r="C29">
-        <v>3414.04569892473</v>
-      </c>
-      <c r="D29">
-        <v>3417.4272000000001</v>
-      </c>
-      <c r="E29">
-        <v>-3.3815010752682602</v>
-      </c>
-      <c r="F29">
-        <v>0.92758030057029806</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>841.38340000000005</v>
-      </c>
-      <c r="B30">
-        <v>733.55395999999996</v>
-      </c>
-      <c r="C30">
-        <v>3559.8202898550699</v>
-      </c>
-      <c r="D30">
-        <v>3559.4512</v>
-      </c>
-      <c r="E30">
-        <v>0.36908985507261599</v>
-      </c>
-      <c r="F30">
-        <v>3.75059093034087</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>845.08385999999996</v>
-      </c>
-      <c r="B31">
-        <v>736.48346000000004</v>
-      </c>
-      <c r="C31">
-        <v>3576.9991764705801</v>
-      </c>
-      <c r="D31">
-        <v>3576.9903749999999</v>
-      </c>
-      <c r="E31">
-        <v>8.8014705879686499E-3</v>
-      </c>
-      <c r="F31">
-        <v>-0.36028838448464701</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>850.73009999999999</v>
-      </c>
-      <c r="B32">
-        <v>740.58219999999994</v>
-      </c>
-      <c r="C32">
-        <v>3603.2561111111099</v>
-      </c>
-      <c r="D32">
-        <v>3602.7146666666599</v>
-      </c>
-      <c r="E32">
-        <v>0.54144444444500495</v>
-      </c>
-      <c r="F32">
-        <v>0.53264297385703596</v>
-      </c>
+      <c r="H3" s="15">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15">
+        <v>3597</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="14">
+        <v>3619.356060606061</v>
+      </c>
+      <c r="N3" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Holcene Revision Work/EDML LC/EDML-GICC Errors/New_Layers.xlsx
+++ b/Holcene Revision Work/EDML LC/EDML-GICC Errors/New_Layers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quinnmackay/Documents/GitHub/BICC/Holcene Revision Work/EDML LC/EDML-GICC Errors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94241428-BBBE-0E42-9B9A-80F403E33278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4275ECFF-C5D4-5048-B0CC-6C0FD722328D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19660" xr2:uid="{4DA22EE9-F53B-0A41-9821-C6FC1BEF8675}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16100" xr2:uid="{4DA22EE9-F53B-0A41-9821-C6FC1BEF8675}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8886E691-6BFC-854E-9610-16E022706201}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="136" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="136" zoomScaleNormal="167" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -898,7 +898,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="2">
-        <v>145.55000000000001</v>
+        <v>145.22999999999999</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="9" t="s">
